--- a/TemplateUse.xlsx
+++ b/TemplateUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoram\Documents\Programmeren\Q4\BullSheet\BullSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA030FA6-3E75-4617-BA13-F3667484F4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048C7699-0726-40C5-91F5-925F6F50562C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Productiehuis</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Tijdstip vertraging</t>
   </si>
   <si>
-    <t>Reden van vertraging</t>
-  </si>
-  <si>
     <t>Vertraging in minuten</t>
   </si>
   <si>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>Opmerking</t>
+  </si>
+  <si>
+    <t>Datum opmerking</t>
+  </si>
+  <si>
+    <t>Reden vertraging</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -338,11 +341,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -373,6 +385,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -406,38 +453,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -720,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,21 +784,21 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="36"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="12"/>
@@ -766,8 +808,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="D3" s="24"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="37"/>
+      <c r="F3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="13"/>
@@ -776,13 +818,13 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="26"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="5" t="s">
@@ -795,75 +837,75 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
@@ -878,19 +920,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -970,19 +1012,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1062,124 +1104,124 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -1187,429 +1229,456 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29" t="s">
+      <c r="B62" s="42"/>
+      <c r="C62" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29" t="s">
+      <c r="D62" s="42"/>
+      <c r="E62" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="44"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="20"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="20"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="21"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="19"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="27"/>
+      <c r="B79" s="43"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="C80" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="35" t="s">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="26"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="26"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="26"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="26"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="26"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="26"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="26"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="26"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="26"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="24"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="27"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="15"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="13"/>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="27" t="s">
+      <c r="B92" s="43"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="27"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="20"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="17"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="17"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="17"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="17"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="17"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="17"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="20"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="20"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="17"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="20"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="17"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="20"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="17"/>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="21"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="19"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="44"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="50"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="30"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="50"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="30"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="50"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="30"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="50"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="30"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="50"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="30"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="50"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="50"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="50"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="30"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="50"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="30"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="50"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="30"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="51"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="32"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A100:F100"/>
+  <mergeCells count="103">
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B97:G97"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D50:F50"/>
@@ -1619,17 +1688,13 @@
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E63:H63"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="A65:B65"/>
@@ -1643,15 +1708,14 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:H64"/>
     <mergeCell ref="E76:H76"/>
     <mergeCell ref="E77:H77"/>
     <mergeCell ref="A75:B75"/>
@@ -1665,11 +1729,15 @@
     <mergeCell ref="E72:H72"/>
     <mergeCell ref="E73:H73"/>
     <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
